--- a/excel_operation/practice5.xlsx
+++ b/excel_operation/practice5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\compl\Documents\PowerShell\powershell_practice\excel_operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB45375-D35E-493F-B019-CF84142AE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5378FDBD-C197-47C9-87DC-012F6BDBB3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="2556" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -458,12 +458,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5624B2-2F5B-4123-876D-ADD477435915}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
